--- a/biology/Zoologie/Didelphis_imperfecta/Didelphis_imperfecta.xlsx
+++ b/biology/Zoologie/Didelphis_imperfecta/Didelphis_imperfecta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didelphis imperfecta, aussi appelé pian à oreilles blanches est une espèce d'opossums de la famille des Didelphidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Didelphis imperfecta est un un opossum arboricole d'assez grande taille. Il ressemble beaucoup au pian à oreille noire (Didelphis marsupialis), mais peu s'en distinguer par une fourrure plus dense, un manchon de poils étendu sur la queue, ainsi que la présence de blanc à la base et à l'extrémité des oreilles. 
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Didelphis imperfecta est endémique du plateau des Guyanes, il se rencontre au Venezuela (au sud de l'Orénoque), dans le Sud-Ouest du Surinam, en Guyane française et dans le Nord du Brésil[1]. C'est l'espèce du genre Didelphis possédant la plus petite aire de répartition. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Didelphis imperfecta est endémique du plateau des Guyanes, il se rencontre au Venezuela (au sud de l'Orénoque), dans le Sud-Ouest du Surinam, en Guyane française et dans le Nord du Brésil. C'est l'espèce du genre Didelphis possédant la plus petite aire de répartition. 
 </t>
         </is>
       </c>
